--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5777C7-E102-4527-937A-995E33D34A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC6E45-3B70-44B5-839B-8E47E1AA0E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目页冒烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -85,18 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户信息冒烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录页冒烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-按方法运行</t>
-  </si>
-  <si>
     <t>完全测试套件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +172,18 @@
   </si>
   <si>
     <t>test_00_数据准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_28_多层次文件目录大文件打包测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒烟测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_设置页冒烟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,22 +621,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,22 +644,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -670,189 +667,203 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1033,6 +1044,15 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC6E45-3B70-44B5-839B-8E47E1AA0E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6B926F-6BED-431D-8594-0503297067E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -184,6 +180,17 @@
   </si>
   <si>
     <t>Test_设置页冒烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_10_切换属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-按方法运行</t>
+  </si>
+  <si>
+    <t>test_29_批量收藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +588,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,19 +631,19 @@
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -656,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
@@ -667,10 +674,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -679,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -693,16 +700,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>9</v>
@@ -716,19 +723,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -739,19 +746,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -762,19 +769,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -785,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -808,19 +815,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -829,19 +836,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -850,19 +857,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6B926F-6BED-431D-8594-0503297067E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C54582-4D8D-447C-93C6-D18A9B3346B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,116 +81,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Test_登录页冒烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全测试套件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_项目工作区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_项目管理工作区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_04_用户名密码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_生命周期管理工作区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_15_批量上传文件并下载校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_版次管理工作区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_属性管理工作区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全测试套件</t>
+  </si>
+  <si>
+    <t>完全测试套件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_11_设置默认版次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒烟测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_设置页冒烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_09_批量删除属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_02_账号信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-按方法运行</t>
+  </si>
+  <si>
+    <t>test_18_收藏文件或文件目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_03_编辑生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Test_登录页冒烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全测试套件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_项目工作区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_登录页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_项目管理工作区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_04_用户名密码校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_01_用户基本信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_生命周期管理工作区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_15_批量上传文件并下载校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_版次管理工作区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_属性管理工作区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全测试套件</t>
-  </si>
-  <si>
-    <t>完全测试套件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_01_新增属性系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_05_编辑版次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_11_设置默认版次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_00_数据准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_28_多层次文件目录大文件打包测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒烟测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_设置页冒烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_10_切换属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-按方法运行</t>
-  </si>
-  <si>
-    <t>test_29_批量收藏</t>
+    <t>test_02_账号密码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_21_验证所有人提交后可进入下一节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_15_复制生命周期界面保存生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_23_批量撤销检出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +592,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,19 +632,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>9</v>
@@ -651,10 +655,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -663,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
@@ -674,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -686,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -697,19 +701,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>9</v>
@@ -723,19 +727,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -746,19 +750,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -766,22 +770,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -792,19 +796,19 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -812,64 +816,68 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C54582-4D8D-447C-93C6-D18A9B3346B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D13E4A-BC4A-4E48-9697-86F13B7A0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_04_用户名密码校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,59 +138,64 @@
   </si>
   <si>
     <t>完全测试套件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒烟测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_设置页冒烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_02_账号信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-按方法运行</t>
+  </si>
+  <si>
+    <t>test_18_收藏文件或文件目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_03_编辑生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>test_02_账号密码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完全测试套件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_11_设置默认版次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒烟测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_设置页冒烟</t>
+    <t>test_04_升版设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_00_数据准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_09_删除单个版次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_23_项目归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_27_批量打包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test_09_批量删除属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_02_账号信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-按方法运行</t>
-  </si>
-  <si>
-    <t>test_18_收藏文件或文件目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_03_编辑生命周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>test_02_账号密码校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_21_验证所有人提交后可进入下一节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_15_复制生命周期界面保存生命周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_23_批量撤销检出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,7 +592,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,267 +627,258 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -1072,10 +1063,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{BFFCBF12-9BE1-40F3-B1E7-4C253EEAE251}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576 G1:G12" xr:uid="{BFFCBF12-9BE1-40F3-B1E7-4C253EEAE251}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{766B4889-E34D-4585-87A2-AFD374E05660}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B12 B14:B1048576" xr:uid="{766B4889-E34D-4585-87A2-AFD374E05660}">
       <formula1>"1-按方法运行,2-按类运行,3-按文件运行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D13E4A-BC4A-4E48-9697-86F13B7A0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A3A554-654A-471B-929A-DD9B62E8B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_04_升版设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_00_数据准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,15 +183,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>test_09_批量删除属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>test_23_项目归档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_27_批量打包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_09_批量删除属性</t>
+    <t>test_12_检出文件目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_01_用户基本信息校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +592,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -805,10 +805,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
@@ -851,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>9</v>
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
@@ -874,10 +874,10 @@
         <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A3A554-654A-471B-929A-DD9B62E8B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89309FCB-F7CA-469A-9174-A233E7FBBA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3036" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_00_数据准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_09_删除单个版次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,11 +187,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_12_检出文件目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_01_用户基本信息校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_07_编辑生命周期界面生命周期节点管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_其他操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_00_创建目录引用文件再删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_35_文件目录归档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +604,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -759,10 +771,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -770,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -782,10 +794,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -793,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -805,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>33</v>
@@ -828,10 +840,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,10 +863,10 @@
         <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,9 +886,32 @@
         <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1063,10 +1098,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576 G1:G12" xr:uid="{BFFCBF12-9BE1-40F3-B1E7-4C253EEAE251}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{BFFCBF12-9BE1-40F3-B1E7-4C253EEAE251}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B12 B14:B1048576" xr:uid="{766B4889-E34D-4585-87A2-AFD374E05660}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{766B4889-E34D-4585-87A2-AFD374E05660}">
       <formula1>"1-按方法运行,2-按类运行,3-按文件运行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89309FCB-F7CA-469A-9174-A233E7FBBA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A728A659-33F0-442D-B59D-A5B3F86ACCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-3036" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_35_文件目录归档</t>
+    <t>test_32_清理文件版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,7 +774,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -843,7 +843,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -866,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A728A659-33F0-442D-B59D-A5B3F86ACCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53459D35-52A2-4260-9BE7-9B5E72A5B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="0" windowWidth="20160" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_23_项目归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_01_用户基本信息校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +204,10 @@
   </si>
   <si>
     <t>test_32_清理文件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_00_数据准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,6 +325,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +613,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,10 +780,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -794,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>33</v>
@@ -817,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>9</v>
@@ -840,10 +849,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -866,7 +875,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -889,29 +898,29 @@
         <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53459D35-52A2-4260-9BE7-9B5E72A5B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDA5FF-6BAA-4957-9152-320C4A2D0B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="0" windowWidth="20160" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,7 +852,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -875,7 +875,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -898,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDA5FF-6BAA-4957-9152-320C4A2D0B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63757FBA-F459-40E2-A905-0DB4032DD02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>test_00_数据准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,36 +906,50 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -1103,6 +1121,15 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63757FBA-F459-40E2-A905-0DB4032DD02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193290CA-F96A-4D49-B7C4-0178B69A56BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,7 +203,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_32_清理文件版本</t>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_文件目录设置工作区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_全局搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,7 +223,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限管理</t>
+    <t>test_45_编辑会签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_19_用户文件附加权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_12_用户文件附加权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_04_项目成员搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,10 +808,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -807,10 +831,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -907,7 +931,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -916,58 +940,86 @@
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1130,6 +1182,24 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="13740"/>
+    <workbookView windowWidth="28800" windowHeight="14490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2CBD1-3C82-4BF3-BD9F-8CC8A9112D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14490"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,14 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,151 +196,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,194 +233,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -592,251 +268,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -859,61 +293,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1171,28 +561,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="27.75" customWidth="1"/>
-    <col min="5" max="5" width="33.125" customWidth="1"/>
-    <col min="6" max="6" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:7">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1238,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1261,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1284,7 +674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1307,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1330,12 +720,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -1353,7 +743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1373,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1399,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1419,10 +809,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1442,10 +832,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1465,10 +855,10 @@
         <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1488,10 +878,10 @@
         <v>41</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1511,10 +901,10 @@
         <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1534,10 +924,10 @@
         <v>46</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1560,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1569,7 +959,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1578,7 +968,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1587,7 +977,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1596,7 +986,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1605,7 +995,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1614,7 +1004,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1623,7 +1013,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1632,7 +1022,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1641,7 +1031,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1650,7 +1040,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1659,7 +1049,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1668,7 +1058,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1677,7 +1067,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1686,7 +1076,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1695,7 +1085,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1704,7 +1094,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1713,7 +1103,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1722,7 +1112,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1731,7 +1121,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1741,16 +1131,16 @@
       <c r="G36" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9 G1:G6 G7:G8 G10:G14 G15:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1-按方法运行,2-按类运行,3-按文件运行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2CBD1-3C82-4BF3-BD9F-8CC8A9112D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7959EFF2-DEAD-4609-AFF7-34C6664087A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -173,13 +173,17 @@
   </si>
   <si>
     <t>test_00_创建目录引用文件再删除</t>
+  </si>
+  <si>
+    <t>Test_分享管理工作区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +202,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -272,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +302,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -698,25 +713,25 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -725,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -763,29 +778,29 @@
         <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -809,7 +824,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -832,7 +847,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,7 +870,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -878,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -901,7 +916,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,40 +939,54 @@
         <v>46</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -1129,6 +1158,15 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7959EFF2-DEAD-4609-AFF7-34C6664087A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E1C96-1369-49E5-BCB3-D77E3A9E819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Test_项目工作区</t>
   </si>
   <si>
-    <t>test_47_批量删除会签</t>
-  </si>
-  <si>
     <t>用户信息</t>
   </si>
   <si>
@@ -176,6 +173,14 @@
   </si>
   <si>
     <t>Test_分享管理工作区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_18_文件分享</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,19 +590,19 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="33.125" customWidth="1"/>
+    <col min="6" max="6" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -643,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -666,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -689,7 +694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -712,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -735,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -755,15 +760,15 @@
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -774,14 +779,14 @@
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -792,19 +797,19 @@
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -815,19 +820,19 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -838,19 +843,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -861,19 +866,19 @@
         <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -884,19 +889,19 @@
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -907,19 +912,19 @@
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -930,19 +935,19 @@
         <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -952,20 +957,20 @@
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -976,19 +981,19 @@
         <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -997,7 +1002,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1006,7 +1011,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1015,7 +1020,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1024,7 +1029,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1033,7 +1038,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1042,7 +1047,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1051,7 +1056,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1060,7 +1065,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1069,7 +1074,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1078,7 +1083,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1087,7 +1092,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1096,7 +1101,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1105,7 +1110,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1114,7 +1119,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1123,7 +1128,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1132,7 +1137,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1141,7 +1146,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1150,7 +1155,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1159,7 +1164,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E1C96-1369-49E5-BCB3-D77E3A9E819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE4388-BDF8-4F6A-9848-60CFA02446AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Test_项目管理工作区</t>
   </si>
   <si>
-    <t>test_00_数据准备</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -181,6 +178,10 @@
   </si>
   <si>
     <t>test_18_文件分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_00_数据准备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -201,12 +202,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -590,7 +593,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,7 +740,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -756,11 +759,11 @@
       <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -768,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -777,13 +780,13 @@
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -797,13 +800,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -820,16 +823,16 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -843,16 +846,16 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -866,61 +869,61 @@
         <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -935,16 +938,16 @@
         <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -958,16 +961,16 @@
         <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -981,13 +984,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>

--- a/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/自动化用例执行计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\自动化测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE4388-BDF8-4F6A-9848-60CFA02446AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325FCD3B-84FC-402E-BE9A-5850CBF0445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>test_00_数据准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_05_查看访问记录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +597,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -763,7 +767,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -786,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -832,7 +836,7 @@
         <v>33</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -855,7 +859,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -878,7 +882,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -947,7 +951,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -955,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -966,8 +970,8 @@
       <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>44</v>
+      <c r="F16" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>26</v>
